--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,18 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\Java\RegresionLineal\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B61281-9386-4C67-BEED-CC069AED3CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet10" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet11" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet12" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet13" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet14" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet15" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet16" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet17" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet18" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet19" sheetId="20" r:id="rId20"/>
+    <sheet name="Sheet20" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -101,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,14 +454,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" customWidth="1"/>
+    <col min="25" max="25" width="28.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="119.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -515,7 +548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1971</v>
       </c>
@@ -592,7 +625,7 @@
         <v>98908.322458496099</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1972</v>
       </c>
@@ -669,7 +702,7 @@
         <v>119635.994944458</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1973</v>
       </c>
@@ -746,7 +779,7 @@
         <v>100003.32589538601</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1974</v>
       </c>
@@ -823,7 +856,7 @@
         <v>107025.91195922899</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1975</v>
       </c>
@@ -900,7 +933,7 @@
         <v>120666.496993408</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1976</v>
       </c>
@@ -977,7 +1010,7 @@
         <v>139344.06107055701</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1977</v>
       </c>
@@ -1054,7 +1087,7 @@
         <v>107639.840975342</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1978</v>
       </c>
@@ -1131,7 +1164,7 @@
         <v>129766.478120117</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1979</v>
       </c>
@@ -1208,7 +1241,7 @@
         <v>137121.74730957</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1980</v>
       </c>
@@ -1285,7 +1318,7 @@
         <v>146029.36460815399</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1981</v>
       </c>
@@ -1362,7 +1395,7 @@
         <v>132456.32625000001</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1982</v>
       </c>
@@ -1439,7 +1472,7 @@
         <v>139672.83140747101</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1983</v>
       </c>
@@ -1516,7 +1549,7 @@
         <v>142348.239049072</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1984</v>
       </c>
@@ -1593,7 +1626,7 @@
         <v>112195.347966309</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1985</v>
       </c>
@@ -1670,7 +1703,7 @@
         <v>118432.721384277</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1986</v>
       </c>
@@ -1747,7 +1780,7 @@
         <v>125794.69219726601</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1987</v>
       </c>
@@ -1824,7 +1857,7 @@
         <v>153379.520792236</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1988</v>
       </c>
@@ -1901,7 +1934,7 @@
         <v>128733.746999512</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1989</v>
       </c>
@@ -1978,7 +2011,7 @@
         <v>129958.812138672</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1990</v>
       </c>
@@ -2055,7 +2088,7 @@
         <v>149231.760009766</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1991</v>
       </c>
@@ -2132,7 +2165,7 @@
         <v>141373.48801269499</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1992</v>
       </c>
@@ -2209,7 +2242,7 @@
         <v>149878.180974121</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1993</v>
       </c>
@@ -2286,7 +2319,7 @@
         <v>164146.986152344</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1994</v>
       </c>
@@ -2363,7 +2396,7 @@
         <v>116704.400146484</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1995</v>
       </c>
@@ -2440,7 +2473,7 @@
         <v>128623.566047363</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1996</v>
       </c>
@@ -2517,7 +2550,7 @@
         <v>133071.352001953</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1997</v>
       </c>
@@ -2594,7 +2627,7 @@
         <v>134330.38693847699</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1998</v>
       </c>
@@ -2671,7 +2704,7 @@
         <v>97034.138916015596</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1999</v>
       </c>
@@ -2748,7 +2781,7 @@
         <v>158722.27291748</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2000</v>
       </c>
@@ -2825,7 +2858,7 @@
         <v>52098.934990234397</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2001</v>
       </c>
@@ -2902,7 +2935,7 @@
         <v>23814.448137207</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2002</v>
       </c>
@@ -2979,7 +3012,7 @@
         <v>66378.184829101607</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2003</v>
       </c>
@@ -3056,7 +3089,7 @@
         <v>85497.627080078106</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2004</v>
       </c>
@@ -3133,7 +3166,7 @@
         <v>159154.77982910199</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2005</v>
       </c>
@@ -3210,7 +3243,7 @@
         <v>254030.68244628899</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2006</v>
       </c>
@@ -3287,7 +3320,7 @@
         <v>124797.778308105</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2007</v>
       </c>
@@ -3364,7 +3397,7 @@
         <v>186636.92089843799</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2008</v>
       </c>
@@ -3441,7 +3474,7 @@
         <v>77099.724890136698</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2009</v>
       </c>
@@ -3518,7 +3551,7 @@
         <v>32557.091377260102</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2010</v>
       </c>
@@ -3595,7 +3628,7 @@
         <v>55426.758616219697</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2011</v>
       </c>
@@ -3672,7 +3705,7 @@
         <v>571919.471184753</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2012</v>
       </c>
@@ -3747,6 +3780,6774 @@
       </c>
       <c r="Y43" s="3">
         <v>571836.81338160904</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B311FF-6061-4B34-A8CD-5317C5C81F64}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>28.3707190990492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>28.865503553955499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>28.900581556355601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>29.394442905935598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>29.890150466168201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>29.923382257915598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>30.419089818148201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>30.452321609895701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>30.947106064802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>30.981260961875801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>31.4769685221084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>31.511123419182098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>31.545278316255899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>32.047447613772697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>32.019754453983197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>32.496076802363099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>32.518231330194801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>32.539462752700103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>32.742545924490003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>32.728699344595199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>33.043478260869598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>33.075786947290702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>33.428413181944101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>33.5558017169759</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>33.785654943228998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>33.863195790639701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>34.0385858026401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>34.138281177882398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>34.218591341272003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>34.286901135419498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>34.2989015046617</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>34.441982830240903</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>33.829040893566003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>33.801347733776403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>34.119819071355998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>34.258284870303697</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>34.514908151020002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>34.602603157020198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34.776146958367903</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>34.631219422136098</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>34.669066740515099</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>34.755838641189001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA7B922-A7A6-4E9E-BA60-C4E37FEDF624}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>1.46866057417151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1.50835410320318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1.5489707375611601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1.57943321332964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1.61728053170867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1.6680513246561399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1.70312932705622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1.73266869749838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1.76313117326687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1.7935936490353499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1.8277485461091101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1.8628265485091899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1.8932890242776701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1.93205944798301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1.89236591895135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1.9015969722145301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1.9108280254777099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1.92005907874088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1.9292901320040601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1.9385211852672399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1.94775223853042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1.9846764515831301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2.0308317178990101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2.1692975168466702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2.4000738484261102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2.4831533277947</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>2.6511584971845301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>2.74531524046894</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2.8339333517954399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>2.9022431459429501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>2.9077817779008601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>3.0462475768485202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>3.2437921166805102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>3.3037939628911701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>3.5133388719652898</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>3.6047262992707498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>3.8502723160712602</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>3.9379673220714499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>4.1115111234191799</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>3.9665835871873001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>4.0044309055663296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>4.0819717529770196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A661FF-6196-42AC-AE33-57A7026C220D}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>2.8846153846153801</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>3.4421888790820798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>4.3552519214346699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>5.8915946582875103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>7.5723830734966597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>8.9832869080779894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>13.5849056603774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>15.165601394538101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>18.1119648737651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>19.641754169240301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>20.144284128745799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>20.294117647058801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>21.684689812179901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>20.953436807095301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>23.479729729729701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>26.931447225244799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>31.9912948857454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>32.357473035439099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>36.784351145038201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>38.9441800086543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>38.181019332161704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>40.4228855721393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>39.683138438325201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>49.822946175637398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>54.455117588605503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>52.964793082149498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>52.390552995391701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>54.797843665768198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>50.734346817830499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>47.706185567010301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>43.969849246231199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44.837476099426397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>51.569713758079402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>50.033163829316798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>57.434640522875803</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>56.471698113207502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>56.539937216602702</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>56.9365652398143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>58.813919294233003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>64.113914711524302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>64.210526315789494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>65.670278031588595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA25DC94-484F-4764-9E7B-2B1AE73153E7}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>0.76923076923076905</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1.0591350397175601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1.02476515798463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.94265514532600203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1.1135857461024501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1.3231197771587699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1.1949685534591199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0.98779779198140605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1.20746432491767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1.9765287214329801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1.77580466148724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1.8823529411764699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1.6505406943654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1.4412416851441201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1.2387387387387401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1.3057671381936899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1.6866158868335099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1.84899845916795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1.5744274809160299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1.3846819558632599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1.62565905096661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1.6998341625207301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1.6220294228593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1.5580736543909299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>1.49055978800927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1.45151327980235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1.3824884792626699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1.3477088948787099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1.3398608606029401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1.39175257731959</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>1.3567839195979901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>1.2906309751434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1.24653739612188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1.1938978554057</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1.1437908496732001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>1.1320754716981101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>1.25566794558772</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>1.66752621626268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>1.9768011762783899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>1.75593920613841</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>1.6897506925207799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>1.60553452551886</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2ACFD5-12CE-4AC3-B14C-5A1C6A885749}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>86.346153846153896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>83.759929390997399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>83.005977796754905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>81.225451688923798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>79.732739420935403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>78.412256267409504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>74.779874213836493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>73.155142359093503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>70.5817782656421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>65.657813465101896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>64.150943396226396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>67.352941176470594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>65.054069436539606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>64.523281596452307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>64.301801801801801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>60.6093579978237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>57.725788900979303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>59.732922444786901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>55.677480916030497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>51.060147122457799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>57.249560632688897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>52.446102819237097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>56.657864956620102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>46.600566572238002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>41.835044716793597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44.008647313156303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>45.074884792626698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>41.940700808625301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>46.019067250708602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>50.128865979381402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>53.492462311557802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>52.652963671128099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>45.867959372114498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>47.512712801238102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>40.114379084967297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>40.735849056603797</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>40.442971747471198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>39.711191335740097</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>37.510210749877501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>32.197137376420201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>32.506925207756197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>30.700952878214299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43435840-7A3F-40EA-9424-FC191EE605EC}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>11.738746690203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>11.6140051238258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>11.9402985074627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>11.5812917594655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>11.2813370473538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>10.440251572327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>10.691458454387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>10.0987925356751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>12.7239036442248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>13.928967813540501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10.4705882352941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11.610700056915199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13.0820399113082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10.9797297297297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11.153427638737799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>8.5963003264417903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>6.0606060606060597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>5.9637404580152698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>8.6109909130246596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2.9437609841827799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>5.4311774461028204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2.0369671821953999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2.0184135977337099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2.2192779065915902</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1.57504632489191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1.1520737327188899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1.91374663072776</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1.9067250708580299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>0.77319587628866004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>1.1809045226130701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>1.2189292543021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1.31578947368421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1.2602255140393499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1.3071895424836599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>1.6603773584905701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>1.7614230903383301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>1.68471720818291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>1.6990687796111701</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>1.93300870591707</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>1.5927977839335199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2.0232345646782401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D77FDEA-ACA5-4B8F-AE5B-F6100944DB52}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>4581740</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>4682390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>4785923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4892293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>5001419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5113456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5228252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5344939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>5462419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5579935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>5697096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>5814345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>5932810</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>6054123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>6179460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>6309130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>6442831</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>6580312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>6721115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>6864842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>7011453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>7160920</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>7312850</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>7466793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>7622338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>7779267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>7937458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>8096761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>8257066</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>8418264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>8580235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>8742814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>8905823</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>9069039</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>9232306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>9395446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>9558439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>9721454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>9884781</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>10048590</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>10212954</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>10377676</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14349734-7CD0-4983-A572-92D01AE0E86A}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>2.1562441371130099</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2.1729824694359698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2.1870237429367498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2.1982208970343202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2.20605624351218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2.2153824382509502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2.2201500036577899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2.2073135287220098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2.1741600059675399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2.1285395643371698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2.0779443750626698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2.0371568570968699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2.01698225912439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2.0241565046133401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2.04913614722616</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2.0766901649524199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2.0970249134808401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2.1114120831057401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>2.11719027639933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>2.1158960269633398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2.1131931228803502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2.10935094494176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2.0994610322104701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2.0832515032176699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2.0617557092027798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2.0378971028762498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>2.0130955052831498</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1.98710322970102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1.9605213457983399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1.93343126038957</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>1.90576711770633</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>1.8770803408087999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1.84732266496624</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1.8160972360129899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1.78425499769694</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>1.7516249001241899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>1.71993254138409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>1.6910766550360199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>1.6661105834716601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>1.6436024557675899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>1.62245883675043</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>1.6000046047601799</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF136CD-DFBA-4828-8494-1FAA96FF591A}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>1836453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1891170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1947679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2006036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2066286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2128425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2219184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2321948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2427663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2536136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2646814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2760186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2876582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2997033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>3121801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>3251410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>3385643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>3524613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>3667780</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>3815273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>3967010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>4120465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>4247230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>4376661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>4508613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>4642822</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>4779302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>4917892</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>5058609</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>5201393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>5346001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>5489001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>5632755</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>5777975</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>5924371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>6072089</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>6220823</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6370955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>6522374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>6675278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>6829811</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>6985733</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F169B96-3E27-444D-B5E7-4EE0618E80E6}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>21.927913849323598</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>22.3198195793174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>22.717331641148402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>23.1250663032652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>23.5429585083753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>23.972338864360999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>24.4044280956618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>24.852650329592201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>25.323615782678001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>25.8230427415373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>26.349196151864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>26.905231801690501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>27.4853905653476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>28.084761409703798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>28.6939311849255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>29.3174177739245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>29.9560084689479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>30.613776368050601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>31.2885436419404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>31.988762450759999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>32.714032312560597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>33.446805717701103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>33.944125751246098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>34.459800881047599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>34.9945777791539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>35.5517557116885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>36.1270824992082</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>36.727093710682603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>37.351063925127903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>38.002027496405397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>38.675397585264299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>38.836752102927001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>38.893171355415397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>38.964514321749</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>39.047893343223201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>39.146933525028999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>39.2602704270017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>39.388027757987601</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>39.5254988451439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39.675128550373699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>39.835409030531203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>40.008071171233297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3966DA-D654-4656-804E-7D3620F277AE}">
+  <dimension ref="A1:S42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>122460.075</v>
+      </c>
+      <c r="B1" s="3">
+        <v>69.673000000000002</v>
+      </c>
+      <c r="C1" s="3">
+        <v>165.875846294203</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1870.17</v>
+      </c>
+      <c r="E1" s="3">
+        <v>0.66829305023855601</v>
+      </c>
+      <c r="F1" s="3">
+        <v>98908.322458496099</v>
+      </c>
+      <c r="G1" s="3">
+        <v>8585.76</v>
+      </c>
+      <c r="H1" s="3">
+        <v>11349.2</v>
+      </c>
+      <c r="I1" s="3">
+        <v>28.3707190990492</v>
+      </c>
+      <c r="J1" s="3">
+        <v>1.46866057417151</v>
+      </c>
+      <c r="K1" s="3">
+        <v>2.8846153846153801</v>
+      </c>
+      <c r="L1" s="3">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="M1" s="3">
+        <v>86.346153846153896</v>
+      </c>
+      <c r="N1" s="3">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3">
+        <v>4581740</v>
+      </c>
+      <c r="P1" s="3">
+        <v>2.1562441371130099</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>1836453</v>
+      </c>
+      <c r="R1" s="3">
+        <v>21.927913849323598</v>
+      </c>
+      <c r="S1" s="3">
+        <v>2.9226308855049701</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>149851.06</v>
+      </c>
+      <c r="B2" s="3">
+        <v>99.009</v>
+      </c>
+      <c r="C2" s="3">
+        <v>174.05641136257299</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2049.8530000000001</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.76278524428763905</v>
+      </c>
+      <c r="F2" s="3">
+        <v>119635.994944458</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10895.88</v>
+      </c>
+      <c r="H2" s="3">
+        <v>15052.3</v>
+      </c>
+      <c r="I2" s="3">
+        <v>28.865503553955499</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1.50835410320318</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3.4421888790820798</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.0591350397175601</v>
+      </c>
+      <c r="M2" s="3">
+        <v>83.759929390997399</v>
+      </c>
+      <c r="N2" s="3">
+        <v>11.738746690203</v>
+      </c>
+      <c r="O2" s="3">
+        <v>4682390</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2.1729824694359698</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1891170</v>
+      </c>
+      <c r="R2" s="3">
+        <v>22.3198195793174</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2.9359691368559799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>125556.13</v>
+      </c>
+      <c r="B3" s="3">
+        <v>117.34399999999999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>173.84316463094001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2181.8649999999998</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.72253168302122694</v>
+      </c>
+      <c r="F3" s="3">
+        <v>100003.32589538601</v>
+      </c>
+      <c r="G3" s="3">
+        <v>8886.9249999999993</v>
+      </c>
+      <c r="H3" s="3">
+        <v>12661</v>
+      </c>
+      <c r="I3" s="3">
+        <v>28.900581556355601</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.5489707375611601</v>
+      </c>
+      <c r="K3" s="3">
+        <v>4.3552519214346699</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.02476515798463</v>
+      </c>
+      <c r="M3" s="3">
+        <v>83.005977796754905</v>
+      </c>
+      <c r="N3" s="3">
+        <v>11.6140051238258</v>
+      </c>
+      <c r="O3" s="3">
+        <v>4785923</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2.1870237429367498</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1947679</v>
+      </c>
+      <c r="R3" s="3">
+        <v>22.717331641148402</v>
+      </c>
+      <c r="S3" s="3">
+        <v>2.9442722087991098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>134838.337</v>
+      </c>
+      <c r="B4" s="3">
+        <v>286.02600000000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>181.71438219256299</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2368.8820000000001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.71881487883084705</v>
+      </c>
+      <c r="F4" s="3">
+        <v>107025.91195922899</v>
+      </c>
+      <c r="G4" s="3">
+        <v>9850.777</v>
+      </c>
+      <c r="H4" s="3">
+        <v>14135.5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>29.394442905935598</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.57943321332964</v>
+      </c>
+      <c r="K4" s="3">
+        <v>5.8915946582875103</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.94265514532600203</v>
+      </c>
+      <c r="M4" s="3">
+        <v>81.225451688923798</v>
+      </c>
+      <c r="N4" s="3">
+        <v>11.9402985074627</v>
+      </c>
+      <c r="O4" s="3">
+        <v>4892293</v>
+      </c>
+      <c r="P4" s="3">
+        <v>2.1982208970343202</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2006036</v>
+      </c>
+      <c r="R4" s="3">
+        <v>23.1250663032652</v>
+      </c>
+      <c r="S4" s="3">
+        <v>2.9522228292575901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>152794.21</v>
+      </c>
+      <c r="B5" s="3">
+        <v>249.35599999999999</v>
+      </c>
+      <c r="C5" s="3">
+        <v>189.54620678651401</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2871.261</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.811643455587304</v>
+      </c>
+      <c r="F5" s="3">
+        <v>120666.496993408</v>
+      </c>
+      <c r="G5" s="3">
+        <v>11390.174999999999</v>
+      </c>
+      <c r="H5" s="3">
+        <v>16353.3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>29.890150466168201</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.61728053170867</v>
+      </c>
+      <c r="K5" s="3">
+        <v>7.5723830734966597</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.1135857461024501</v>
+      </c>
+      <c r="M5" s="3">
+        <v>79.732739420935403</v>
+      </c>
+      <c r="N5" s="3">
+        <v>11.5812917594655</v>
+      </c>
+      <c r="O5" s="3">
+        <v>5001419</v>
+      </c>
+      <c r="P5" s="3">
+        <v>2.20605624351218</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2066286</v>
+      </c>
+      <c r="R5" s="3">
+        <v>23.5429585083753</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2.95921573286053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>177016.054</v>
+      </c>
+      <c r="B6" s="3">
+        <v>304.36099999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>199.66926477904599</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3160.9540000000002</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.89569226761704801</v>
+      </c>
+      <c r="F6" s="3">
+        <v>139344.06107055701</v>
+      </c>
+      <c r="G6" s="3">
+        <v>13440.484</v>
+      </c>
+      <c r="H6" s="3">
+        <v>19290.7</v>
+      </c>
+      <c r="I6" s="3">
+        <v>29.923382257915598</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.6680513246561399</v>
+      </c>
+      <c r="K6" s="3">
+        <v>8.9832869080779894</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.3231197771587699</v>
+      </c>
+      <c r="M6" s="3">
+        <v>78.412256267409504</v>
+      </c>
+      <c r="N6" s="3">
+        <v>11.2813370473538</v>
+      </c>
+      <c r="O6" s="3">
+        <v>5113456</v>
+      </c>
+      <c r="P6" s="3">
+        <v>2.2153824382509502</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>2128425</v>
+      </c>
+      <c r="R6" s="3">
+        <v>23.972338864360999</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.9629476714682799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>137558.42800000001</v>
+      </c>
+      <c r="B7" s="3">
+        <v>337.36399999999998</v>
+      </c>
+      <c r="C7" s="3">
+        <v>216.32469131174199</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3314.9679999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.857088372939942</v>
+      </c>
+      <c r="F7" s="3">
+        <v>107639.840975342</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10147.942999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>14982.3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>30.419089818148201</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.70312932705622</v>
+      </c>
+      <c r="K7" s="3">
+        <v>13.5849056603774</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.1949685534591199</v>
+      </c>
+      <c r="M7" s="3">
+        <v>74.779874213836493</v>
+      </c>
+      <c r="N7" s="3">
+        <v>10.440251572327</v>
+      </c>
+      <c r="O7" s="3">
+        <v>5228252</v>
+      </c>
+      <c r="P7" s="3">
+        <v>2.2201500036577899</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>2219184</v>
+      </c>
+      <c r="R7" s="3">
+        <v>24.4044280956618</v>
+      </c>
+      <c r="S7" s="3">
+        <v>4.1757291163587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>166709.43799999999</v>
+      </c>
+      <c r="B8" s="3">
+        <v>645.39200000000005</v>
+      </c>
+      <c r="C8" s="3">
+        <v>227.50493504228999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3307.634</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.94060138010929595</v>
+      </c>
+      <c r="F8" s="3">
+        <v>129766.478120117</v>
+      </c>
+      <c r="G8" s="3">
+        <v>12679.558000000001</v>
+      </c>
+      <c r="H8" s="3">
+        <v>18848.599999999999</v>
+      </c>
+      <c r="I8" s="3">
+        <v>30.452321609895701</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1.73266869749838</v>
+      </c>
+      <c r="K8" s="3">
+        <v>15.165601394538101</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.98779779198140605</v>
+      </c>
+      <c r="M8" s="3">
+        <v>73.155142359093503</v>
+      </c>
+      <c r="N8" s="3">
+        <v>10.691458454387</v>
+      </c>
+      <c r="O8" s="3">
+        <v>5344939</v>
+      </c>
+      <c r="P8" s="3">
+        <v>2.2073135287220098</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>2321948</v>
+      </c>
+      <c r="R8" s="3">
+        <v>24.852650329592201</v>
+      </c>
+      <c r="S8" s="3">
+        <v>4.5266927790324702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>175554.18900000001</v>
+      </c>
+      <c r="B9" s="3">
+        <v>678.39499999999998</v>
+      </c>
+      <c r="C9" s="3">
+        <v>237.25752272024499</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3377.3069999999998</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.86733807860583401</v>
+      </c>
+      <c r="F9" s="3">
+        <v>137121.74730957</v>
+      </c>
+      <c r="G9" s="3">
+        <v>13525.734</v>
+      </c>
+      <c r="H9" s="3">
+        <v>19993.7</v>
+      </c>
+      <c r="I9" s="3">
+        <v>30.947106064802</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.76313117326687</v>
+      </c>
+      <c r="K9" s="3">
+        <v>18.1119648737651</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.20746432491767</v>
+      </c>
+      <c r="M9" s="3">
+        <v>70.5817782656421</v>
+      </c>
+      <c r="N9" s="3">
+        <v>10.0987925356751</v>
+      </c>
+      <c r="O9" s="3">
+        <v>5462419</v>
+      </c>
+      <c r="P9" s="3">
+        <v>2.1741600059675399</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>2427663</v>
+      </c>
+      <c r="R9" s="3">
+        <v>25.323615782678001</v>
+      </c>
+      <c r="S9" s="3">
+        <v>4.4522577662492004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>186438.28200000001</v>
+      </c>
+      <c r="B10" s="3">
+        <v>667.39400000000001</v>
+      </c>
+      <c r="C10" s="3">
+        <v>253.4079698061</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3479.9830000000002</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.836585193196695</v>
+      </c>
+      <c r="F10" s="3">
+        <v>146029.36460815399</v>
+      </c>
+      <c r="G10" s="3">
+        <v>14330.121999999999</v>
+      </c>
+      <c r="H10" s="3">
+        <v>21233.3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>30.981260961875801</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1.7935936490353499</v>
+      </c>
+      <c r="K10" s="3">
+        <v>19.641754169240301</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.9765287214329801</v>
+      </c>
+      <c r="M10" s="3">
+        <v>65.657813465101896</v>
+      </c>
+      <c r="N10" s="3">
+        <v>12.7239036442248</v>
+      </c>
+      <c r="O10" s="3">
+        <v>5579935</v>
+      </c>
+      <c r="P10" s="3">
+        <v>2.1285395643371698</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>2536136</v>
+      </c>
+      <c r="R10" s="3">
+        <v>25.8230427415373</v>
+      </c>
+      <c r="S10" s="3">
+        <v>4.3712596697394197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>169439.802</v>
+      </c>
+      <c r="B11" s="3">
+        <v>674.72799999999995</v>
+      </c>
+      <c r="C11" s="3">
+        <v>266.100483474388</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3567.991</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.84126526918275601</v>
+      </c>
+      <c r="F11" s="3">
+        <v>132456.32625000001</v>
+      </c>
+      <c r="G11" s="3">
+        <v>12753.307000000001</v>
+      </c>
+      <c r="H11" s="3">
+        <v>19046.2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>31.4769685221084</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1.8277485461091101</v>
+      </c>
+      <c r="K11" s="3">
+        <v>20.144284128745799</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.77580466148724</v>
+      </c>
+      <c r="M11" s="3">
+        <v>64.150943396226396</v>
+      </c>
+      <c r="N11" s="3">
+        <v>13.928967813540501</v>
+      </c>
+      <c r="O11" s="3">
+        <v>5697096</v>
+      </c>
+      <c r="P11" s="3">
+        <v>2.0779443750626698</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>2646814</v>
+      </c>
+      <c r="R11" s="3">
+        <v>26.349196151864</v>
+      </c>
+      <c r="S11" s="3">
+        <v>4.2714989650538797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>178438.79699999999</v>
+      </c>
+      <c r="B12" s="3">
+        <v>667.39400000000001</v>
+      </c>
+      <c r="C12" s="3">
+        <v>265.03415260016402</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3215.9589999999998</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.74798829446824999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>139672.83140747101</v>
+      </c>
+      <c r="G12" s="3">
+        <v>13395.627</v>
+      </c>
+      <c r="H12" s="3">
+        <v>19916.5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>31.511123419182098</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1.8628265485091899</v>
+      </c>
+      <c r="K12" s="3">
+        <v>20.294117647058801</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.8823529411764699</v>
+      </c>
+      <c r="M12" s="3">
+        <v>67.352941176470594</v>
+      </c>
+      <c r="N12" s="3">
+        <v>10.4705882352941</v>
+      </c>
+      <c r="O12" s="3">
+        <v>5814345</v>
+      </c>
+      <c r="P12" s="3">
+        <v>2.0371568570968699</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2760186</v>
+      </c>
+      <c r="R12" s="3">
+        <v>26.905231801690501</v>
+      </c>
+      <c r="S12" s="3">
+        <v>4.1941416214860796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>183028.39199999999</v>
+      </c>
+      <c r="B13" s="3">
+        <v>605.05499999999995</v>
+      </c>
+      <c r="C13" s="3">
+        <v>254.17972259351001</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3168.288</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.72316322282358603</v>
+      </c>
+      <c r="F13" s="3">
+        <v>142348.239049072</v>
+      </c>
+      <c r="G13" s="3">
+        <v>13923.246999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>21186.9</v>
+      </c>
+      <c r="I13" s="3">
+        <v>31.545278316255899</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.8932890242776701</v>
+      </c>
+      <c r="K13" s="3">
+        <v>21.684689812179901</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.6505406943654</v>
+      </c>
+      <c r="M13" s="3">
+        <v>65.054069436539606</v>
+      </c>
+      <c r="N13" s="3">
+        <v>11.610700056915199</v>
+      </c>
+      <c r="O13" s="3">
+        <v>5932810</v>
+      </c>
+      <c r="P13" s="3">
+        <v>2.01698225912439</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>2876582</v>
+      </c>
+      <c r="R13" s="3">
+        <v>27.4853905653476</v>
+      </c>
+      <c r="S13" s="3">
+        <v>4.1304715018166496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>144623.62899999999</v>
+      </c>
+      <c r="B14" s="3">
+        <v>465.709</v>
+      </c>
+      <c r="C14" s="3">
+        <v>252.555159516911</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3083.9470000000001</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.66748462163718802</v>
+      </c>
+      <c r="F14" s="3">
+        <v>112195.347966309</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10530.359</v>
+      </c>
+      <c r="H14" s="3">
+        <v>16739.400000000001</v>
+      </c>
+      <c r="I14" s="3">
+        <v>32.047447613772697</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1.93205944798301</v>
+      </c>
+      <c r="K14" s="3">
+        <v>20.953436807095301</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1.4412416851441201</v>
+      </c>
+      <c r="M14" s="3">
+        <v>64.523281596452307</v>
+      </c>
+      <c r="N14" s="3">
+        <v>13.0820399113082</v>
+      </c>
+      <c r="O14" s="3">
+        <v>6054123</v>
+      </c>
+      <c r="P14" s="3">
+        <v>2.0241565046133401</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2997033</v>
+      </c>
+      <c r="R14" s="3">
+        <v>28.084761409703798</v>
+      </c>
+      <c r="S14" s="3">
+        <v>4.1020015504035303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>153112.18799999999</v>
+      </c>
+      <c r="B15" s="3">
+        <v>421.70499999999998</v>
+      </c>
+      <c r="C15" s="3">
+        <v>245.00522699394401</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3127.951</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.66759474128807395</v>
+      </c>
+      <c r="F15" s="3">
+        <v>118432.721384277</v>
+      </c>
+      <c r="G15" s="3">
+        <v>11463.272999999999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>18281.8</v>
+      </c>
+      <c r="I15" s="3">
+        <v>32.019754453983197</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1.89236591895135</v>
+      </c>
+      <c r="K15" s="3">
+        <v>23.479729729729701</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1.2387387387387401</v>
+      </c>
+      <c r="M15" s="3">
+        <v>64.301801801801801</v>
+      </c>
+      <c r="N15" s="3">
+        <v>10.9797297297297</v>
+      </c>
+      <c r="O15" s="3">
+        <v>6179460</v>
+      </c>
+      <c r="P15" s="3">
+        <v>2.04913614722616</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>3121801</v>
+      </c>
+      <c r="R15" s="3">
+        <v>28.6939311849255</v>
+      </c>
+      <c r="S15" s="3">
+        <v>4.0787279585223999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>161269.11199999999</v>
+      </c>
+      <c r="B16" s="3">
+        <v>462.04199999999997</v>
+      </c>
+      <c r="C16" s="3">
+        <v>235.05618048764299</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2878.5949999999998</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.59865781811438301</v>
+      </c>
+      <c r="F16" s="3">
+        <v>125794.69219726601</v>
+      </c>
+      <c r="G16" s="3">
+        <v>12084.172</v>
+      </c>
+      <c r="H16" s="3">
+        <v>18697.5</v>
+      </c>
+      <c r="I16" s="3">
+        <v>32.496076802363099</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1.9015969722145301</v>
+      </c>
+      <c r="K16" s="3">
+        <v>26.931447225244799</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1.3057671381936899</v>
+      </c>
+      <c r="M16" s="3">
+        <v>60.6093579978237</v>
+      </c>
+      <c r="N16" s="3">
+        <v>11.153427638737799</v>
+      </c>
+      <c r="O16" s="3">
+        <v>6309130</v>
+      </c>
+      <c r="P16" s="3">
+        <v>2.0766901649524199</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>3251410</v>
+      </c>
+      <c r="R16" s="3">
+        <v>29.3174177739245</v>
+      </c>
+      <c r="S16" s="3">
+        <v>4.0678669541320298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>195881.63800000001</v>
+      </c>
+      <c r="B17" s="3">
+        <v>605.05499999999995</v>
+      </c>
+      <c r="C17" s="3">
+        <v>233.592965576778</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2940.9340000000002</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.62550655139022004</v>
+      </c>
+      <c r="F17" s="3">
+        <v>153379.520792236</v>
+      </c>
+      <c r="G17" s="3">
+        <v>15045.323</v>
+      </c>
+      <c r="H17" s="3">
+        <v>22567.200000000001</v>
+      </c>
+      <c r="I17" s="3">
+        <v>32.518231330194801</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1.9108280254777099</v>
+      </c>
+      <c r="K17" s="3">
+        <v>31.9912948857454</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1.6866158868335099</v>
+      </c>
+      <c r="M17" s="3">
+        <v>57.725788900979303</v>
+      </c>
+      <c r="N17" s="3">
+        <v>8.5963003264417903</v>
+      </c>
+      <c r="O17" s="3">
+        <v>6442831</v>
+      </c>
+      <c r="P17" s="3">
+        <v>2.0970249134808401</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>3385643</v>
+      </c>
+      <c r="R17" s="3">
+        <v>29.9560084689479</v>
+      </c>
+      <c r="S17" s="3">
+        <v>4.0455095600334401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>165829.90400000001</v>
+      </c>
+      <c r="B18" s="3">
+        <v>594.05399999999997</v>
+      </c>
+      <c r="C18" s="3">
+        <v>245.733029072178</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2951.9349999999999</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.65479038076006102</v>
+      </c>
+      <c r="F18" s="3">
+        <v>128733.746999512</v>
+      </c>
+      <c r="G18" s="3">
+        <v>12475.144</v>
+      </c>
+      <c r="H18" s="3">
+        <v>19465</v>
+      </c>
+      <c r="I18" s="3">
+        <v>32.539462752700103</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1.92005907874088</v>
+      </c>
+      <c r="K18" s="3">
+        <v>32.357473035439099</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1.84899845916795</v>
+      </c>
+      <c r="M18" s="3">
+        <v>59.732922444786901</v>
+      </c>
+      <c r="N18" s="3">
+        <v>6.0606060606060597</v>
+      </c>
+      <c r="O18" s="3">
+        <v>6580312</v>
+      </c>
+      <c r="P18" s="3">
+        <v>2.1114120831057401</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>3524613</v>
+      </c>
+      <c r="R18" s="3">
+        <v>30.613776368050601</v>
+      </c>
+      <c r="S18" s="3">
+        <v>4.0226798991335002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>168428.209</v>
+      </c>
+      <c r="B19" s="3">
+        <v>865.41200000000003</v>
+      </c>
+      <c r="C19" s="3">
+        <v>257.84412258977898</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3058.2779999999998</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.74309902449221599</v>
+      </c>
+      <c r="F19" s="3">
+        <v>129958.812138672</v>
+      </c>
+      <c r="G19" s="3">
+        <v>12644.714</v>
+      </c>
+      <c r="H19" s="3">
+        <v>19829</v>
+      </c>
+      <c r="I19" s="3">
+        <v>32.742545924490003</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1.9292901320040601</v>
+      </c>
+      <c r="K19" s="3">
+        <v>36.784351145038201</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1.5744274809160299</v>
+      </c>
+      <c r="M19" s="3">
+        <v>55.677480916030497</v>
+      </c>
+      <c r="N19" s="3">
+        <v>5.9637404580152698</v>
+      </c>
+      <c r="O19" s="3">
+        <v>6721115</v>
+      </c>
+      <c r="P19" s="3">
+        <v>2.11719027639933</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>3667780</v>
+      </c>
+      <c r="R19" s="3">
+        <v>31.2885436419404</v>
+      </c>
+      <c r="S19" s="3">
+        <v>3.9815931402575702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>192645.69500000001</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1437.4639999999999</v>
+      </c>
+      <c r="C20" s="3">
+        <v>266.13868170600301</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3267.297</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.83864858069566595</v>
+      </c>
+      <c r="F20" s="3">
+        <v>149231.760009766</v>
+      </c>
+      <c r="G20" s="3">
+        <v>14607.045</v>
+      </c>
+      <c r="H20" s="3">
+        <v>22435.9</v>
+      </c>
+      <c r="I20" s="3">
+        <v>32.728699344595199</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1.9385211852672399</v>
+      </c>
+      <c r="K20" s="3">
+        <v>38.9441800086543</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1.3846819558632599</v>
+      </c>
+      <c r="M20" s="3">
+        <v>51.060147122457799</v>
+      </c>
+      <c r="N20" s="3">
+        <v>8.6109909130246596</v>
+      </c>
+      <c r="O20" s="3">
+        <v>6864842</v>
+      </c>
+      <c r="P20" s="3">
+        <v>2.1158960269633398</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>3815273</v>
+      </c>
+      <c r="R20" s="3">
+        <v>31.988762450759999</v>
+      </c>
+      <c r="S20" s="3">
+        <v>3.94256474034737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>183161.87899999999</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1507.1369999999999</v>
+      </c>
+      <c r="C21" s="3">
+        <v>280.540994855132</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3285.6320000000001</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.85667635510071904</v>
+      </c>
+      <c r="F21" s="3">
+        <v>141373.48801269499</v>
+      </c>
+      <c r="G21" s="3">
+        <v>13772.029</v>
+      </c>
+      <c r="H21" s="3">
+        <v>21403.200000000001</v>
+      </c>
+      <c r="I21" s="3">
+        <v>33.043478260869598</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1.94775223853042</v>
+      </c>
+      <c r="K21" s="3">
+        <v>38.181019332161704</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1.62565905096661</v>
+      </c>
+      <c r="M21" s="3">
+        <v>57.249560632688897</v>
+      </c>
+      <c r="N21" s="3">
+        <v>2.9437609841827799</v>
+      </c>
+      <c r="O21" s="3">
+        <v>7011453</v>
+      </c>
+      <c r="P21" s="3">
+        <v>2.1131931228803502</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>3967010</v>
+      </c>
+      <c r="R21" s="3">
+        <v>32.714032312560597</v>
+      </c>
+      <c r="S21" s="3">
+        <v>3.9000440516408199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>194819.31299999999</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1822.499</v>
+      </c>
+      <c r="C22" s="3">
+        <v>290.04653033409102</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3410.31</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.92943434642476097</v>
+      </c>
+      <c r="F22" s="3">
+        <v>149878.180974121</v>
+      </c>
+      <c r="G22" s="3">
+        <v>14760.743</v>
+      </c>
+      <c r="H22" s="3">
+        <v>23062.2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>33.075786947290702</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1.9846764515831301</v>
+      </c>
+      <c r="K22" s="3">
+        <v>40.4228855721393</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1.6998341625207301</v>
+      </c>
+      <c r="M22" s="3">
+        <v>52.446102819237097</v>
+      </c>
+      <c r="N22" s="3">
+        <v>5.4311774461028204</v>
+      </c>
+      <c r="O22" s="3">
+        <v>7160920</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2.10935094494176</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>4120465</v>
+      </c>
+      <c r="R22" s="3">
+        <v>33.446805717701103</v>
+      </c>
+      <c r="S22" s="3">
+        <v>3.7953358744846399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>213989.647</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1881.171</v>
+      </c>
+      <c r="C23" s="3">
+        <v>312.60042254387798</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3700.0030000000002</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1.07058739068899</v>
+      </c>
+      <c r="F23" s="3">
+        <v>164146.986152344</v>
+      </c>
+      <c r="G23" s="3">
+        <v>16225.617</v>
+      </c>
+      <c r="H23" s="3">
+        <v>25269.1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>33.428413181944101</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2.0308317178990101</v>
+      </c>
+      <c r="K23" s="3">
+        <v>39.683138438325201</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1.6220294228593</v>
+      </c>
+      <c r="M23" s="3">
+        <v>56.657864956620102</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2.0369671821953999</v>
+      </c>
+      <c r="O23" s="3">
+        <v>7312850</v>
+      </c>
+      <c r="P23" s="3">
+        <v>2.0994610322104701</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>4247230</v>
+      </c>
+      <c r="R23" s="3">
+        <v>33.944125751246098</v>
+      </c>
+      <c r="S23" s="3">
+        <v>3.0300984669058701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>156530.70600000001</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2207.5340000000001</v>
+      </c>
+      <c r="C24" s="3">
+        <v>332.80686902663598</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4176.7129999999997</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.1565587796527901</v>
+      </c>
+      <c r="F24" s="3">
+        <v>116704.400146484</v>
+      </c>
+      <c r="G24" s="3">
+        <v>11408.806</v>
+      </c>
+      <c r="H24" s="3">
+        <v>19438.400000000001</v>
+      </c>
+      <c r="I24" s="3">
+        <v>33.5558017169759</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2.1692975168466702</v>
+      </c>
+      <c r="K24" s="3">
+        <v>49.822946175637398</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1.5580736543909299</v>
+      </c>
+      <c r="M24" s="3">
+        <v>46.600566572238002</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2.0184135977337099</v>
+      </c>
+      <c r="O24" s="3">
+        <v>7466793</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2.0832515032176699</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>4376661</v>
+      </c>
+      <c r="R24" s="3">
+        <v>34.459800881047599</v>
+      </c>
+      <c r="S24" s="3">
+        <v>3.0019099161404998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>170371.96900000001</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2453.223</v>
+      </c>
+      <c r="C25" s="3">
+        <v>351.59815794051599</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5027.4570000000003</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.29219696108989</v>
+      </c>
+      <c r="F25" s="3">
+        <v>128623.566047363</v>
+      </c>
+      <c r="G25" s="3">
+        <v>12912.089</v>
+      </c>
+      <c r="H25" s="3">
+        <v>20551.2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>33.785654943228998</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2.4000738484261102</v>
+      </c>
+      <c r="K25" s="3">
+        <v>54.455117588605503</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1.49055978800927</v>
+      </c>
+      <c r="M25" s="3">
+        <v>41.835044716793597</v>
+      </c>
+      <c r="N25" s="3">
+        <v>2.2192779065915902</v>
+      </c>
+      <c r="O25" s="3">
+        <v>7622338</v>
+      </c>
+      <c r="P25" s="3">
+        <v>2.0617557092027798</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>4508613</v>
+      </c>
+      <c r="R25" s="3">
+        <v>34.9945777791539</v>
+      </c>
+      <c r="S25" s="3">
+        <v>2.9703462511272898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>176121.30100000001</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2794.2539999999999</v>
+      </c>
+      <c r="C26" s="3">
+        <v>369.82918827699302</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5478.4979999999996</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1.26330154242038</v>
+      </c>
+      <c r="F26" s="3">
+        <v>133071.352001953</v>
+      </c>
+      <c r="G26" s="3">
+        <v>13516.651</v>
+      </c>
+      <c r="H26" s="3">
+        <v>21495.599999999999</v>
+      </c>
+      <c r="I26" s="3">
+        <v>33.863195790639701</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2.4831533277947</v>
+      </c>
+      <c r="K26" s="3">
+        <v>52.964793082149498</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1.45151327980235</v>
+      </c>
+      <c r="M26" s="3">
+        <v>44.008647313156303</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1.57504632489191</v>
+      </c>
+      <c r="O26" s="3">
+        <v>7779267</v>
+      </c>
+      <c r="P26" s="3">
+        <v>2.0378971028762498</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>4642822</v>
+      </c>
+      <c r="R26" s="3">
+        <v>35.5517557116885</v>
+      </c>
+      <c r="S26" s="3">
+        <v>2.93328036087917</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>179070.81700000001</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3369.973</v>
+      </c>
+      <c r="C27" s="3">
+        <v>388.28551911707802</v>
+      </c>
+      <c r="D27" s="3">
+        <v>5793.86</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.3785683023456601</v>
+      </c>
+      <c r="F27" s="3">
+        <v>134330.38693847699</v>
+      </c>
+      <c r="G27" s="3">
+        <v>13835.517</v>
+      </c>
+      <c r="H27" s="3">
+        <v>22156.9</v>
+      </c>
+      <c r="I27" s="3">
+        <v>34.0385858026401</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2.6511584971845301</v>
+      </c>
+      <c r="K27" s="3">
+        <v>52.390552995391701</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1.3824884792626699</v>
+      </c>
+      <c r="M27" s="3">
+        <v>45.074884792626698</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1.1520737327188899</v>
+      </c>
+      <c r="O27" s="3">
+        <v>7937458</v>
+      </c>
+      <c r="P27" s="3">
+        <v>2.0130955052831498</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>4779302</v>
+      </c>
+      <c r="R27" s="3">
+        <v>36.1270824992082</v>
+      </c>
+      <c r="S27" s="3">
+        <v>2.8972139715096001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>136014.86799999999</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2882.2620000000002</v>
+      </c>
+      <c r="C28" s="3">
+        <v>405.10026169723898</v>
+      </c>
+      <c r="D28" s="3">
+        <v>6600.6</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1.35733276553427</v>
+      </c>
+      <c r="F28" s="3">
+        <v>97034.138916015596</v>
+      </c>
+      <c r="G28" s="3">
+        <v>11238.368</v>
+      </c>
+      <c r="H28" s="3">
+        <v>19195</v>
+      </c>
+      <c r="I28" s="3">
+        <v>34.138281177882398</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2.74531524046894</v>
+      </c>
+      <c r="K28" s="3">
+        <v>54.797843665768198</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1.3477088948787099</v>
+      </c>
+      <c r="M28" s="3">
+        <v>41.940700808625301</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1.91374663072776</v>
+      </c>
+      <c r="O28" s="3">
+        <v>8096761</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1.98710322970102</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>4917892</v>
+      </c>
+      <c r="R28" s="3">
+        <v>36.727093710682603</v>
+      </c>
+      <c r="S28" s="3">
+        <v>2.8585472670413901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>225873.916</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3105.9490000000001</v>
+      </c>
+      <c r="C29" s="3">
+        <v>418.18728347333098</v>
+      </c>
+      <c r="D29" s="3">
+        <v>6039.549</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1.26480955826198</v>
+      </c>
+      <c r="F29" s="3">
+        <v>158722.27291748</v>
+      </c>
+      <c r="G29" s="3">
+        <v>21581.146000000001</v>
+      </c>
+      <c r="H29" s="3">
+        <v>37456.800000000003</v>
+      </c>
+      <c r="I29" s="3">
+        <v>34.218591341272003</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2.8339333517954399</v>
+      </c>
+      <c r="K29" s="3">
+        <v>50.734346817830499</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1.3398608606029401</v>
+      </c>
+      <c r="M29" s="3">
+        <v>46.019067250708602</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1.9067250708580299</v>
+      </c>
+      <c r="O29" s="3">
+        <v>8257066</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1.9605213457983399</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>5058609</v>
+      </c>
+      <c r="R29" s="3">
+        <v>37.351063925127903</v>
+      </c>
+      <c r="S29" s="3">
+        <v>2.8211560914874001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>91400.932000000001</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5364.8209999999999</v>
+      </c>
+      <c r="C30" s="3">
+        <v>415.88146914850898</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4664.424</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1.3146423062997299</v>
+      </c>
+      <c r="F30" s="3">
+        <v>52098.934990234397</v>
+      </c>
+      <c r="G30" s="3">
+        <v>11333.662</v>
+      </c>
+      <c r="H30" s="3">
+        <v>19765.7</v>
+      </c>
+      <c r="I30" s="3">
+        <v>34.286901135419498</v>
+      </c>
+      <c r="J30" s="3">
+        <v>2.9022431459429501</v>
+      </c>
+      <c r="K30" s="3">
+        <v>47.706185567010301</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1.39175257731959</v>
+      </c>
+      <c r="M30" s="3">
+        <v>50.128865979381402</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.77319587628866004</v>
+      </c>
+      <c r="O30" s="3">
+        <v>8418264</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1.93343126038957</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>5201393</v>
+      </c>
+      <c r="R30" s="3">
+        <v>38.002027496405397</v>
+      </c>
+      <c r="S30" s="3">
+        <v>2.7834930006743099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>62224.11</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2702.5790000000002</v>
+      </c>
+      <c r="C31" s="3">
+        <v>416.65525478031799</v>
+      </c>
+      <c r="D31" s="3">
+        <v>5082.4620000000004</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1.0047646713639</v>
+      </c>
+      <c r="F31" s="3">
+        <v>23814.448137207</v>
+      </c>
+      <c r="G31" s="3">
+        <v>11158.14</v>
+      </c>
+      <c r="H31" s="3">
+        <v>19566.8</v>
+      </c>
+      <c r="I31" s="3">
+        <v>34.2989015046617</v>
+      </c>
+      <c r="J31" s="3">
+        <v>2.9077817779008601</v>
+      </c>
+      <c r="K31" s="3">
+        <v>43.969849246231199</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1.3567839195979901</v>
+      </c>
+      <c r="M31" s="3">
+        <v>53.492462311557802</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1.1809045226130701</v>
+      </c>
+      <c r="O31" s="3">
+        <v>8580235</v>
+      </c>
+      <c r="P31" s="3">
+        <v>1.90576711770633</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>5346001</v>
+      </c>
+      <c r="R31" s="3">
+        <v>38.675397585264299</v>
+      </c>
+      <c r="S31" s="3">
+        <v>2.7422330444363001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>110701.193</v>
+      </c>
+      <c r="B32" s="3">
+        <v>4506.7430000000004</v>
+      </c>
+      <c r="C32" s="3">
+        <v>429.95310205615698</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4932.1149999999998</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1.1890845441753699</v>
+      </c>
+      <c r="F32" s="3">
+        <v>66378.184829101607</v>
+      </c>
+      <c r="G32" s="3">
+        <v>12798.133</v>
+      </c>
+      <c r="H32" s="3">
+        <v>23336.2</v>
+      </c>
+      <c r="I32" s="3">
+        <v>34.441982830240903</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3.0462475768485202</v>
+      </c>
+      <c r="K32" s="3">
+        <v>44.837476099426397</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1.2906309751434</v>
+      </c>
+      <c r="M32" s="3">
+        <v>52.652963671128099</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1.2189292543021</v>
+      </c>
+      <c r="O32" s="3">
+        <v>8742814</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1.8770803408087999</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>5489001</v>
+      </c>
+      <c r="R32" s="3">
+        <v>38.836752102927001</v>
+      </c>
+      <c r="S32" s="3">
+        <v>2.6397466977830102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>124597.495</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4070.37</v>
+      </c>
+      <c r="C33" s="3">
+        <v>437.24201570141202</v>
+      </c>
+      <c r="D33" s="3">
+        <v>6057.884</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1.24555304995395</v>
+      </c>
+      <c r="F33" s="3">
+        <v>85497.627080078106</v>
+      </c>
+      <c r="G33" s="3">
+        <v>10415.225</v>
+      </c>
+      <c r="H33" s="3">
+        <v>19758.900000000001</v>
+      </c>
+      <c r="I33" s="3">
+        <v>33.829040893566003</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3.2437921166805102</v>
+      </c>
+      <c r="K33" s="3">
+        <v>51.569713758079402</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1.24653739612188</v>
+      </c>
+      <c r="M33" s="3">
+        <v>45.867959372114498</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1.31578947368421</v>
+      </c>
+      <c r="O33" s="3">
+        <v>8905823</v>
+      </c>
+      <c r="P33" s="3">
+        <v>1.84732266496624</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>5632755</v>
+      </c>
+      <c r="R33" s="3">
+        <v>38.893171355415397</v>
+      </c>
+      <c r="S33" s="3">
+        <v>2.5852393518564099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>252571.28899999999</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3989.6959999999999</v>
+      </c>
+      <c r="C34" s="3">
+        <v>447.12565465866902</v>
+      </c>
+      <c r="D34" s="3">
+        <v>6094.5540000000001</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1.22556281872864</v>
+      </c>
+      <c r="F34" s="3">
+        <v>159154.77982910199</v>
+      </c>
+      <c r="G34" s="3">
+        <v>27957.008999999998</v>
+      </c>
+      <c r="H34" s="3">
+        <v>55862.7</v>
+      </c>
+      <c r="I34" s="3">
+        <v>33.801347733776403</v>
+      </c>
+      <c r="J34" s="3">
+        <v>3.3037939628911701</v>
+      </c>
+      <c r="K34" s="3">
+        <v>50.033163829316798</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1.1938978554057</v>
+      </c>
+      <c r="M34" s="3">
+        <v>47.512712801238102</v>
+      </c>
+      <c r="N34" s="3">
+        <v>1.2602255140393499</v>
+      </c>
+      <c r="O34" s="3">
+        <v>9069039</v>
+      </c>
+      <c r="P34" s="3">
+        <v>1.8160972360129899</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>5777975</v>
+      </c>
+      <c r="R34" s="3">
+        <v>38.964514321749</v>
+      </c>
+      <c r="S34" s="3">
+        <v>2.5454610009173302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>309458.39199999999</v>
+      </c>
+      <c r="B35" s="3">
+        <v>4514.0770000000002</v>
+      </c>
+      <c r="C35" s="3">
+        <v>476.58732282053899</v>
+      </c>
+      <c r="D35" s="3">
+        <v>6706.9430000000002</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1.31986970535855</v>
+      </c>
+      <c r="F35" s="3">
+        <v>254030.68244628899</v>
+      </c>
+      <c r="G35" s="3">
+        <v>15277.791999999999</v>
+      </c>
+      <c r="H35" s="3">
+        <v>29842.799999999999</v>
+      </c>
+      <c r="I35" s="3">
+        <v>34.119819071355998</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3.5133388719652898</v>
+      </c>
+      <c r="K35" s="3">
+        <v>57.434640522875803</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1.1437908496732001</v>
+      </c>
+      <c r="M35" s="3">
+        <v>40.114379084967297</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1.3071895424836599</v>
+      </c>
+      <c r="O35" s="3">
+        <v>9232306</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1.78425499769694</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>5924371</v>
+      </c>
+      <c r="R35" s="3">
+        <v>39.047893343223201</v>
+      </c>
+      <c r="S35" s="3">
+        <v>2.50212457702147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>164214.818</v>
+      </c>
+      <c r="B36" s="3">
+        <v>7451.3440000000001</v>
+      </c>
+      <c r="C36" s="3">
+        <v>506.94772765443997</v>
+      </c>
+      <c r="D36" s="3">
+        <v>6618.9350000000004</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1.602553194388</v>
+      </c>
+      <c r="F36" s="3">
+        <v>124797.778308105</v>
+      </c>
+      <c r="G36" s="3">
+        <v>9138.1180000000004</v>
+      </c>
+      <c r="H36" s="3">
+        <v>19181</v>
+      </c>
+      <c r="I36" s="3">
+        <v>34.258284870303697</v>
+      </c>
+      <c r="J36" s="3">
+        <v>3.6047262992707498</v>
+      </c>
+      <c r="K36" s="3">
+        <v>56.471698113207502</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1.1320754716981101</v>
+      </c>
+      <c r="M36" s="3">
+        <v>40.735849056603797</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1.6603773584905701</v>
+      </c>
+      <c r="O36" s="3">
+        <v>9395446</v>
+      </c>
+      <c r="P36" s="3">
+        <v>1.7516249001241899</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>6072089</v>
+      </c>
+      <c r="R36" s="3">
+        <v>39.146933525028999</v>
+      </c>
+      <c r="S36" s="3">
+        <v>2.4628176381680098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>227561.899</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4140.0429999999997</v>
+      </c>
+      <c r="C37" s="3">
+        <v>538.686285490758</v>
+      </c>
+      <c r="D37" s="3">
+        <v>7176.3190000000004</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1.29018148256216</v>
+      </c>
+      <c r="F37" s="3">
+        <v>186636.92089843799</v>
+      </c>
+      <c r="G37" s="3">
+        <v>8941.2990000000009</v>
+      </c>
+      <c r="H37" s="3">
+        <v>19943.599999999999</v>
+      </c>
+      <c r="I37" s="3">
+        <v>34.514908151020002</v>
+      </c>
+      <c r="J37" s="3">
+        <v>3.8502723160712602</v>
+      </c>
+      <c r="K37" s="3">
+        <v>56.539937216602702</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1.25566794558772</v>
+      </c>
+      <c r="M37" s="3">
+        <v>40.442971747471198</v>
+      </c>
+      <c r="N37" s="3">
+        <v>1.7614230903383301</v>
+      </c>
+      <c r="O37" s="3">
+        <v>9558439</v>
+      </c>
+      <c r="P37" s="3">
+        <v>1.71993254138409</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>6220823</v>
+      </c>
+      <c r="R37" s="3">
+        <v>39.2602704270017</v>
+      </c>
+      <c r="S37" s="3">
+        <v>2.4199515680840999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>120003.253</v>
+      </c>
+      <c r="B38" s="3">
+        <v>4770.7669999999998</v>
+      </c>
+      <c r="C38" s="3">
+        <v>527.80170538275399</v>
+      </c>
+      <c r="D38" s="3">
+        <v>7308.3310000000001</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1.3617170847077</v>
+      </c>
+      <c r="F38" s="3">
+        <v>77099.724890136698</v>
+      </c>
+      <c r="G38" s="3">
+        <v>8781.1530000000002</v>
+      </c>
+      <c r="H38" s="3">
+        <v>21016.2</v>
+      </c>
+      <c r="I38" s="3">
+        <v>34.602603157020198</v>
+      </c>
+      <c r="J38" s="3">
+        <v>3.9379673220714499</v>
+      </c>
+      <c r="K38" s="3">
+        <v>56.9365652398143</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1.66752621626268</v>
+      </c>
+      <c r="M38" s="3">
+        <v>39.711191335740097</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1.68471720818291</v>
+      </c>
+      <c r="O38" s="3">
+        <v>9721454</v>
+      </c>
+      <c r="P38" s="3">
+        <v>1.6910766550360199</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>6370955</v>
+      </c>
+      <c r="R38" s="3">
+        <v>39.388027757987601</v>
+      </c>
+      <c r="S38" s="3">
+        <v>2.3847166743274402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>76425.966351869502</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5276.8130000000001</v>
+      </c>
+      <c r="C39" s="3">
+        <v>546.59784571858495</v>
+      </c>
+      <c r="D39" s="3">
+        <v>7429.3419999999996</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1.4152670656031701</v>
+      </c>
+      <c r="F39" s="3">
+        <v>32557.091377260102</v>
+      </c>
+      <c r="G39" s="3">
+        <v>9026.3009999999995</v>
+      </c>
+      <c r="H39" s="3">
+        <v>21009</v>
+      </c>
+      <c r="I39" s="3">
+        <v>34.776146958367903</v>
+      </c>
+      <c r="J39" s="3">
+        <v>4.1115111234191799</v>
+      </c>
+      <c r="K39" s="3">
+        <v>58.813919294233003</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1.9768011762783899</v>
+      </c>
+      <c r="M39" s="3">
+        <v>37.510210749877501</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1.6990687796111701</v>
+      </c>
+      <c r="O39" s="3">
+        <v>9884781</v>
+      </c>
+      <c r="P39" s="3">
+        <v>1.6661105834716601</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>6522374</v>
+      </c>
+      <c r="R39" s="3">
+        <v>39.5254988451439</v>
+      </c>
+      <c r="S39" s="3">
+        <v>2.3489040241863002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>102900.515628915</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5848.8649999999998</v>
+      </c>
+      <c r="C40" s="3">
+        <v>596.50159873176199</v>
+      </c>
+      <c r="D40" s="3">
+        <v>7986.7259999999997</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1.5129865981197399</v>
+      </c>
+      <c r="F40" s="3">
+        <v>55426.758616219697</v>
+      </c>
+      <c r="G40" s="3">
+        <v>9541.7690000000002</v>
+      </c>
+      <c r="H40" s="3">
+        <v>22775.9</v>
+      </c>
+      <c r="I40" s="3">
+        <v>34.631219422136098</v>
+      </c>
+      <c r="J40" s="3">
+        <v>3.9665835871873001</v>
+      </c>
+      <c r="K40" s="3">
+        <v>64.113914711524302</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1.75593920613841</v>
+      </c>
+      <c r="M40" s="3">
+        <v>32.197137376420201</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1.93300870591707</v>
+      </c>
+      <c r="O40" s="3">
+        <v>10048590</v>
+      </c>
+      <c r="P40" s="3">
+        <v>1.6436024557675899</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>6675278</v>
+      </c>
+      <c r="R40" s="3">
+        <v>39.675128550373699</v>
+      </c>
+      <c r="S40" s="3">
+        <v>2.3172431263243398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>620981.95554662799</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6178.8950000000004</v>
+      </c>
+      <c r="C41" s="3">
+        <v>629.00508511053704</v>
+      </c>
+      <c r="D41" s="3">
+        <v>8463.4359999999997</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1.58091390600604</v>
+      </c>
+      <c r="F41" s="3">
+        <v>571919.471184753</v>
+      </c>
+      <c r="G41" s="3">
+        <v>9637.1866900000005</v>
+      </c>
+      <c r="H41" s="3">
+        <v>23003.659</v>
+      </c>
+      <c r="I41" s="3">
+        <v>34.669066740515099</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4.0044309055663296</v>
+      </c>
+      <c r="K41" s="3">
+        <v>64.210526315789494</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1.6897506925207799</v>
+      </c>
+      <c r="M41" s="3">
+        <v>32.506925207756197</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1.5927977839335199</v>
+      </c>
+      <c r="O41" s="3">
+        <v>10212954</v>
+      </c>
+      <c r="P41" s="3">
+        <v>1.62245883675043</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>6829811</v>
+      </c>
+      <c r="R41" s="3">
+        <v>39.835409030531203</v>
+      </c>
+      <c r="S41" s="3">
+        <v>2.28861498055451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>621726.72675281996</v>
+      </c>
+      <c r="B42" s="3">
+        <v>7036.973</v>
+      </c>
+      <c r="C42" s="3">
+        <v>654.48179341887305</v>
+      </c>
+      <c r="D42" s="3">
+        <v>10252.932000000001</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1.81094254628878</v>
+      </c>
+      <c r="F42" s="3">
+        <v>571836.81338160904</v>
+      </c>
+      <c r="G42" s="3">
+        <v>9732.6043800000007</v>
+      </c>
+      <c r="H42" s="3">
+        <v>23231.418000000001</v>
+      </c>
+      <c r="I42" s="3">
+        <v>34.755838641189001</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4.0819717529770196</v>
+      </c>
+      <c r="K42" s="3">
+        <v>65.670278031588595</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1.60553452551886</v>
+      </c>
+      <c r="M42" s="3">
+        <v>30.700952878214299</v>
+      </c>
+      <c r="N42" s="3">
+        <v>2.0232345646782401</v>
+      </c>
+      <c r="O42" s="3">
+        <v>10377676</v>
+      </c>
+      <c r="P42" s="3">
+        <v>1.6000046047601799</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>6985733</v>
+      </c>
+      <c r="R42" s="3">
+        <v>40.008071171233297</v>
+      </c>
+      <c r="S42" s="3">
+        <v>2.2572925193848201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816C128F-DB37-489B-A227-F58A16631E43}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>2.9226308855049701</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2.9359691368559799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2.9442722087991098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2.9522228292575901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2.95921573286053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2.9629476714682799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4.1757291163587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4.5266927790324702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4.4522577662492004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>4.3712596697394197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>4.2714989650538797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>4.1941416214860796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>4.1304715018166496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>4.1020015504035303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>4.0787279585223999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>4.0678669541320298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>4.0455095600334401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>4.0226798991335002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>3.9815931402575702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>3.94256474034737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>3.9000440516408199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>3.7953358744846399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>3.0300984669058701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>3.0019099161404998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2.9703462511272898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2.93328036087917</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>2.8972139715096001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>2.8585472670413901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2.8211560914874001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>2.7834930006743099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>2.7422330444363001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>2.6397466977830102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2.5852393518564099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>2.5454610009173302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>2.50212457702147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>2.4628176381680098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2.4199515680840999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2.3847166743274402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2.3489040241863002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2.3172431263243398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2.28861498055451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2.2572925193848201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B12FF3-5AE3-4263-A503-388704D4E36F}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>3061.9450000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>3571.6579999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3457.9810000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3516.6529999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4059.3690000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4580.0829999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4481.0739999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5027.4570000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4737.7640000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>4668.0910000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>4792.7690000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>4349.0619999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>4290.3900000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>4041.0340000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>4125.375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>3777.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>4030.0329999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>4308.7250000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>4994.4539999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>5757.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>6006.5460000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>6655.6049999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>7829.0450000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>8635.7849999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>9849.5619999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>9827.56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>10942.328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>10989.999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>10443.616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>11067.005999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>8621.1170000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>10395.945</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>11092.674999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>11114.677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>12185.441000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>15056.701999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>12332.120999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>13237.87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>13989.605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>15203.382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>16145.800999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>18793.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB2874D-59DE-48EB-BAF1-DDAC13C498D1}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>69.673000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>99.009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>117.34399999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>286.02600000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>249.35599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>304.36099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>337.36399999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>645.39200000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>678.39499999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>667.39400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>674.72799999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>667.39400000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>605.05499999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>465.709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>421.70499999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>462.04199999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>605.05499999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>594.05399999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>865.41200000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1437.4639999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1507.1369999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1822.499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1881.171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2207.5340000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2453.223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2794.2539999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>3369.973</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>2882.2620000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>3105.9490000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>5364.8209999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>2702.5790000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>4506.7430000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>4070.37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>3989.6959999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>4514.0770000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>7451.3440000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>4140.0429999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>4770.7669999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>5276.8130000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>5848.8649999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>6178.8950000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>7036.973</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421FCEBA-5013-4973-9622-0EB4DDE4BC5E}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>165.875846294203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>174.05641136257299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>173.84316463094001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>181.71438219256299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>189.54620678651401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>199.66926477904599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>216.32469131174199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>227.50493504228999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>237.25752272024499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>253.4079698061</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>266.100483474388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>265.03415260016402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>254.17972259351001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>252.555159516911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>245.00522699394401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>235.05618048764299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>233.592965576778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>245.733029072178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>257.84412258977898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>266.13868170600301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>280.540994855132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>290.04653033409102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>312.60042254387798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>332.80686902663598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>351.59815794051599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>369.82918827699302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>388.28551911707802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>405.10026169723898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>418.18728347333098</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>415.88146914850898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>416.65525478031799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>429.95310205615698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>437.24201570141202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>447.12565465866902</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>476.58732282053899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>506.94772765443997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>538.686285490758</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>527.80170538275399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>546.59784571858495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>596.50159873176199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>629.00508511053704</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>654.48179341887305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06C8DC2-E97F-4593-94DC-3BCCDD847F73}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>1870.17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2049.8530000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2181.8649999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2368.8820000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2871.261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3160.9540000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3314.9679999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3307.634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>3377.3069999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>3479.9830000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>3567.991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>3215.9589999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>3168.288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>3083.9470000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>3127.951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2878.5949999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2940.9340000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2951.9349999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>3058.2779999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>3267.297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>3285.6320000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>3410.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>3700.0030000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>4176.7129999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>5027.4570000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>5478.4979999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>5793.86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>6600.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>6039.549</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>4664.424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>5082.4620000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>4932.1149999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>6057.884</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>6094.5540000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>6706.9430000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>6618.9350000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>7176.3190000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>7308.3310000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>7429.3419999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>7986.7259999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>8463.4359999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>10252.932000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FB7E02-EA6F-436D-94C1-48A3B131FE83}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>0.66829305023855601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0.76278524428763905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0.72253168302122694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.71881487883084705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.811643455587304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.89569226761704801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0.857088372939942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0.94060138010929595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0.86733807860583401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.836585193196695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.84126526918275601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>0.74798829446824999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>0.72316322282358603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>0.66748462163718802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>0.66759474128807395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>0.59865781811438301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>0.62550655139022004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>0.65479038076006102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>0.74309902449221599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>0.83864858069566595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>0.85667635510071904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>0.92943434642476097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1.07058739068899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1.1565587796527901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>1.29219696108989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1.26330154242038</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1.3785683023456601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1.35733276553427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1.26480955826198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1.3146423062997299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>1.0047646713639</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>1.1890845441753699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1.24555304995395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1.22556281872864</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1.31986970535855</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>1.602553194388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>1.29018148256216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>1.3617170847077</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>1.4152670656031701</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>1.5129865981197399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>1.58091390600604</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>1.81094254628878</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7E9E0E-722F-4111-A771-958813A54929}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>98908.322458496099</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>119635.994944458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>100003.32589538601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>107025.91195922899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>120666.496993408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>139344.06107055701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>107639.840975342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>129766.478120117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>137121.74730957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>146029.36460815399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>132456.32625000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>139672.83140747101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>142348.239049072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>112195.347966309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>118432.721384277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>125794.69219726601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>153379.520792236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>128733.746999512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>129958.812138672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>149231.760009766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>141373.48801269499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>149878.180974121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>164146.986152344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>116704.400146484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>128623.566047363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>133071.352001953</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>134330.38693847699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>97034.138916015596</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>158722.27291748</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>52098.934990234397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>23814.448137207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>66378.184829101607</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>85497.627080078106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>159154.77982910199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>254030.68244628899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>124797.778308105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>186636.92089843799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>77099.724890136698</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>32557.091377260102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>55426.758616219697</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>571919.471184753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>571836.81338160904</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2506EB6A-C2DF-489D-BACD-0C82D6C7BAF6}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>8585.76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>10895.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>8886.9249999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>9850.777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>11390.174999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>13440.484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>10147.942999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>12679.558000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>13525.734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>14330.121999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>12753.307000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>13395.627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>13923.246999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>10530.359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>11463.272999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>12084.172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15045.323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>12475.144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>12644.714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>14607.045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>13772.029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>14760.743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>16225.617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>11408.806</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>12912.089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>13516.651</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>13835.517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>11238.368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>21581.146000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>11333.662</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>11158.14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>12798.133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>10415.225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>27957.008999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>15277.791999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>9138.1180000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>8941.2990000000009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>8781.1530000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>9026.3009999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>9541.7690000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>9637.1866900000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>9732.6043800000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4FE739-1187-4836-B8FB-5AA7F8E7E4E3}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>11349.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>15052.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>12661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>14135.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>16353.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>19290.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>14982.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>18848.599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>19993.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>21233.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>19046.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>19916.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>21186.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>16739.400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>18281.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>18697.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>22567.200000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>19465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>19829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>22435.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>21403.200000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>23062.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>25269.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19438.400000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20551.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21495.599999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22156.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>19195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>37456.800000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>19765.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>19566.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>23336.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>19758.900000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>55862.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>29842.799999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>19181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>19943.599999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>21016.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>21009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>22775.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>23003.659</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>23231.418000000001</v>
       </c>
     </row>
   </sheetData>
